--- a/evaluation/results/autoencoder/split_1/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/autoencoder/split_1/test_95_5/evaluation_metrics.xlsx
@@ -500,34 +500,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.3185053380782918</v>
+        <v>0.3256227758007118</v>
       </c>
       <c r="C2">
-        <v>0.06601466992665037</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D2">
         <v>0.9642857142857143</v>
       </c>
       <c r="E2">
-        <v>0.1235697940503433</v>
+        <v>0.1247113163972286</v>
       </c>
       <c r="F2">
-        <v>0.2591170825335892</v>
+        <v>0.2611218568665377</v>
       </c>
       <c r="G2">
-        <v>0.6330027051397655</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="H2">
-        <v>0.8004280363830926</v>
+        <v>0.8007624398073837</v>
       </c>
       <c r="I2">
         <v>27</v>
       </c>
       <c r="J2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9934640522875817</v>
+        <v>0.9936305732484076</v>
       </c>
       <c r="C2">
-        <v>0.2846441947565543</v>
+        <v>0.2921348314606741</v>
       </c>
       <c r="D2">
-        <v>0.4425036390101892</v>
+        <v>0.4515195369030391</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.06601466992665037</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C3">
         <v>0.9642857142857143</v>
       </c>
       <c r="D3">
-        <v>0.1235697940503433</v>
+        <v>0.1247113163972286</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.3185053380782918</v>
+        <v>0.3256227758007118</v>
       </c>
       <c r="C4">
-        <v>0.3185053380782918</v>
+        <v>0.3256227758007118</v>
       </c>
       <c r="D4">
-        <v>0.3185053380782918</v>
+        <v>0.3256227758007118</v>
       </c>
       <c r="E4">
-        <v>0.3185053380782918</v>
+        <v>0.3256227758007118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5297393611071161</v>
+        <v>0.5301486199575371</v>
       </c>
       <c r="C5">
-        <v>0.6244649545211343</v>
+        <v>0.6282102728731942</v>
       </c>
       <c r="D5">
-        <v>0.2830367165302662</v>
+        <v>0.2881154266501338</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9472566097500265</v>
+        <v>0.9474473181162213</v>
       </c>
       <c r="C6">
-        <v>0.3185053380782918</v>
+        <v>0.3256227758007118</v>
       </c>
       <c r="D6">
-        <v>0.4266136965566737</v>
+        <v>0.4352372768066642</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C2">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:3">
